--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -4735,7 +4735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6846,7 +6846,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-11 賣超 TOP 50】</t>
+          <t>【2025-11-11 賣超 TOP 20】</t>
         </is>
       </c>
       <c r="B56" s="3" t="n"/>
@@ -7730,1170 +7730,6 @@
           <t>均:39 標差:258</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>4128</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>中天</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>20.60</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="n">
-        <v>-560</v>
-      </c>
-      <c r="H79" s="4" t="inlineStr"/>
-      <c r="I79" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J79" s="4" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>6596</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>寬宏藝術</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>136.00</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="n">
-        <v>-533</v>
-      </c>
-      <c r="H80" s="4" t="inlineStr"/>
-      <c r="I80" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J80" s="4" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>6274</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>台燿</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>377.50</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>-530</v>
-      </c>
-      <c r="H81" s="4" t="inlineStr"/>
-      <c r="I81" s="4" t="inlineStr"/>
-      <c r="J81" s="4" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>3260</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>威剛</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>202.50</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="n">
-        <v>-469</v>
-      </c>
-      <c r="H82" s="4" t="inlineStr"/>
-      <c r="I82" s="4" t="inlineStr"/>
-      <c r="J82" s="4" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>5536</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>聖暉*</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>641.00</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>-39.0</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="n">
-        <v>-421</v>
-      </c>
-      <c r="H83" s="4" t="inlineStr"/>
-      <c r="I83" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J83" s="4" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>2745</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>觀光餐旅</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>五福</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>112.50</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="n">
-        <v>-409</v>
-      </c>
-      <c r="H84" s="4" t="inlineStr"/>
-      <c r="I84" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(2.7σ)+連續賣超</t>
-        </is>
-      </c>
-      <c r="J84" s="4" t="inlineStr">
-        <is>
-          <t>均:-11 標差:147</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>3628</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>盈正</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-9.7</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="n">
-        <v>-406</v>
-      </c>
-      <c r="H85" s="4" t="inlineStr"/>
-      <c r="I85" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(3.1σ)</t>
-        </is>
-      </c>
-      <c r="J85" s="4" t="inlineStr">
-        <is>
-          <t>均:29 標差:142</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>8299</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>群聯</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>1310.00</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>+40.0</t>
-        </is>
-      </c>
-      <c r="G86" s="4" t="n">
-        <v>-401</v>
-      </c>
-      <c r="H86" s="4" t="inlineStr"/>
-      <c r="I86" s="4" t="inlineStr"/>
-      <c r="J86" s="4" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>8932</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>其他業</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>智通*</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>177.00</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>-381</v>
-      </c>
-      <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="4" t="inlineStr"/>
-      <c r="J87" s="4" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>8044</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>網家</t>
-        </is>
-      </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>-372</v>
-      </c>
-      <c r="H88" s="4" t="inlineStr"/>
-      <c r="I88" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J88" s="4" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>2070</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>精湛</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>43.90</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="G89" s="4" t="n">
-        <v>-345</v>
-      </c>
-      <c r="H89" s="4" t="inlineStr"/>
-      <c r="I89" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(4.5σ)+連續賣超</t>
-        </is>
-      </c>
-      <c r="J89" s="4" t="inlineStr">
-        <is>
-          <t>均:-11 標差:75</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>3537</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
-        <is>
-          <t>堡達</t>
-        </is>
-      </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>49.50</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>+3.1</t>
-        </is>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>-331</v>
-      </c>
-      <c r="H90" s="4" t="inlineStr"/>
-      <c r="I90" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(3.2σ)</t>
-        </is>
-      </c>
-      <c r="J90" s="4" t="inlineStr">
-        <is>
-          <t>均:-8 標差:100</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>6284</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>佳邦</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>78.80</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>-330</v>
-      </c>
-      <c r="H91" s="4" t="inlineStr"/>
-      <c r="I91" s="4" t="inlineStr"/>
-      <c r="J91" s="4" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>3491</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>昇達科</t>
-        </is>
-      </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>421.50</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>-303</v>
-      </c>
-      <c r="H92" s="4" t="inlineStr"/>
-      <c r="I92" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J92" s="4" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>6182</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>合晶</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>30.30</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>+1.2</t>
-        </is>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>-279</v>
-      </c>
-      <c r="H93" s="4" t="inlineStr"/>
-      <c r="I93" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J93" s="4" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>3078</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>僑威</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>72.40</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>-278</v>
-      </c>
-      <c r="H94" s="4" t="inlineStr"/>
-      <c r="I94" s="4" t="inlineStr"/>
-      <c r="J94" s="4" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>6584</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>南俊國際</t>
-        </is>
-      </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>310.50</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>-261</v>
-      </c>
-      <c r="H95" s="4" t="inlineStr"/>
-      <c r="I95" s="4" t="inlineStr"/>
-      <c r="J95" s="4" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>8227</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>巨有科技</t>
-        </is>
-      </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>153.00</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>-254</v>
-      </c>
-      <c r="H96" s="4" t="inlineStr"/>
-      <c r="I96" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J96" s="4" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>4939</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>亞電</t>
-        </is>
-      </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>25.20</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>-243</v>
-      </c>
-      <c r="H97" s="4" t="inlineStr"/>
-      <c r="I97" s="4" t="inlineStr"/>
-      <c r="J97" s="4" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>6170</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>統振</t>
-        </is>
-      </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>51.80</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="n">
-        <v>-243</v>
-      </c>
-      <c r="H98" s="4" t="inlineStr"/>
-      <c r="I98" s="12" t="inlineStr">
-        <is>
-          <t>👀異常波動(3.1σ)</t>
-        </is>
-      </c>
-      <c r="J98" s="4" t="inlineStr">
-        <is>
-          <t>均:-4 標差:78</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>4768</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
-        <is>
-          <t>化學工業</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>晶呈科技</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>221.50</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-23.5</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>-242</v>
-      </c>
-      <c r="H99" s="4" t="inlineStr"/>
-      <c r="I99" s="4" t="inlineStr"/>
-      <c r="J99" s="4" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>6186</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>建材營造業</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>新潤</t>
-        </is>
-      </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>58.30</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>-1.1</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>-238</v>
-      </c>
-      <c r="H100" s="4" t="inlineStr"/>
-      <c r="I100" s="4" t="inlineStr"/>
-      <c r="J100" s="4" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>晉泰</t>
-        </is>
-      </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>33.85</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
-      <c r="G101" s="4" t="n">
-        <v>-231</v>
-      </c>
-      <c r="H101" s="4" t="inlineStr"/>
-      <c r="I101" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J101" s="4" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B102" s="4" t="inlineStr">
-        <is>
-          <t>3529</t>
-        </is>
-      </c>
-      <c r="C102" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
-        <is>
-          <t>力旺</t>
-        </is>
-      </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>2020.00</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>-15.0</t>
-        </is>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>-228</v>
-      </c>
-      <c r="H102" s="4" t="inlineStr"/>
-      <c r="I102" s="4" t="inlineStr"/>
-      <c r="J102" s="4" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B103" s="4" t="inlineStr">
-        <is>
-          <t>8277</t>
-        </is>
-      </c>
-      <c r="C103" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
-        <is>
-          <t>商丞</t>
-        </is>
-      </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-1.1</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>-223</v>
-      </c>
-      <c r="H103" s="4" t="inlineStr"/>
-      <c r="I103" s="4" t="inlineStr"/>
-      <c r="J103" s="4" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B104" s="4" t="inlineStr">
-        <is>
-          <t>6667</t>
-        </is>
-      </c>
-      <c r="C104" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
-        <is>
-          <t>信紘科</t>
-        </is>
-      </c>
-      <c r="E104" s="4" t="inlineStr">
-        <is>
-          <t>249.00</t>
-        </is>
-      </c>
-      <c r="F104" s="4" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="n">
-        <v>-211</v>
-      </c>
-      <c r="H104" s="4" t="inlineStr"/>
-      <c r="I104" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J104" s="4" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="4" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="C105" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>晟德</t>
-        </is>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>35.15</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
-      <c r="G105" s="4" t="n">
-        <v>-208</v>
-      </c>
-      <c r="H105" s="4" t="inlineStr"/>
-      <c r="I105" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J105" s="4" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B106" s="4" t="inlineStr">
-        <is>
-          <t>5457</t>
-        </is>
-      </c>
-      <c r="C106" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
-        <is>
-          <t>宣德</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>43.45</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>-207</v>
-      </c>
-      <c r="H106" s="4" t="inlineStr"/>
-      <c r="I106" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
-      <c r="J106" s="4" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>西勝</t>
-        </is>
-      </c>
-      <c r="E107" s="4" t="inlineStr">
-        <is>
-          <t>23.10</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>-203</v>
-      </c>
-      <c r="H107" s="4" t="inlineStr"/>
-      <c r="I107" s="4" t="inlineStr"/>
-      <c r="J107" s="4" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>6290</t>
-        </is>
-      </c>
-      <c r="C108" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>良維</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>182.00</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="n">
-        <v>-202</v>
-      </c>
-      <c r="H108" s="4" t="inlineStr"/>
-      <c r="I108" s="4" t="inlineStr"/>
-      <c r="J108" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8910,7 +7746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10660,7 +9496,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-10 賣超 TOP 50】</t>
+          <t>【2025-11-10 賣超 TOP 20】</t>
         </is>
       </c>
       <c r="B56" s="3" t="n"/>
@@ -11374,996 +10210,6 @@
       </c>
       <c r="G78" s="4" t="n">
         <v>-628</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>5905</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>觀光餐旅</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>南仁湖</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="n">
-        <v>-598</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>6111</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>大宇資</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>47.00</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="n">
-        <v>-580</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>5864</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>金融保險業</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>致和證</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>15.90</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>-557</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>3689</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>湧德</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>102.00</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="n">
-        <v>-518</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>6763</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>綠界科技*</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>61.60</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="n">
-        <v>-487</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>8086</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>宏捷科</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>113.50</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="n">
-        <v>-390</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>6223</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>旺矽</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>1990.00</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-80.0</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="n">
-        <v>-355</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>6596</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>寬宏藝術</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>137.00</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G86" s="4" t="n">
-        <v>-317</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>3372</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>典範</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>-287</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>晉泰</t>
-        </is>
-      </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>34.60</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>-1.45</t>
-        </is>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>-282</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>晟德</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>35.10</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
-      <c r="G89" s="4" t="n">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>6122</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
-        <is>
-          <t>擎邦</t>
-        </is>
-      </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>44.50</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>-2.15</t>
-        </is>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>-272</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>3363</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>上詮</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>353.50</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>-270</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>3290</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>東浦</t>
-        </is>
-      </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>47.35</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>-269</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>8074</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>鉅橡</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>29.20</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>-265</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>久裕</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>-1.25</t>
-        </is>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>-258</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>6126</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>信音</t>
-        </is>
-      </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>30.35</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>-1.25</t>
-        </is>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>-251</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>3217</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>優群</t>
-        </is>
-      </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>182.50</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>-249</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>3529</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>力旺</t>
-        </is>
-      </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>2035.00</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>-60.0</t>
-        </is>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>-241</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>8227</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>巨有科技</t>
-        </is>
-      </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>159.00</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="n">
-        <v>-236</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>5478</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>智冠</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>97.50</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>-234</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>6015</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>金融保險業</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>宏遠證</t>
-        </is>
-      </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>10.70</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>-234</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>橘子</t>
-        </is>
-      </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>53.30</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>-2.9</t>
-        </is>
-      </c>
-      <c r="G101" s="4" t="n">
-        <v>-231</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B102" s="4" t="inlineStr">
-        <is>
-          <t>6462</t>
-        </is>
-      </c>
-      <c r="C102" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
-        <is>
-          <t>神盾</t>
-        </is>
-      </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>133.00</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>+4.5</t>
-        </is>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>-224</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B103" s="4" t="inlineStr">
-        <is>
-          <t>3709</t>
-        </is>
-      </c>
-      <c r="C103" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
-        <is>
-          <t>鑫聯大投控</t>
-        </is>
-      </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>48.20</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>+1.3</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B104" s="4" t="inlineStr">
-        <is>
-          <t>4114</t>
-        </is>
-      </c>
-      <c r="C104" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
-        <is>
-          <t>健喬</t>
-        </is>
-      </c>
-      <c r="E104" s="4" t="inlineStr">
-        <is>
-          <t>32.80</t>
-        </is>
-      </c>
-      <c r="F104" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="n">
-        <v>-217</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="4" t="inlineStr">
-        <is>
-          <t>5213</t>
-        </is>
-      </c>
-      <c r="C105" s="4" t="inlineStr">
-        <is>
-          <t>建材營造業</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>亞昕</t>
-        </is>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="G105" s="4" t="n">
-        <v>-211</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B106" s="4" t="inlineStr">
-        <is>
-          <t>3511</t>
-        </is>
-      </c>
-      <c r="C106" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
-        <is>
-          <t>矽瑪</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>19.50</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>-209</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>5289</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>宜鼎</t>
-        </is>
-      </c>
-      <c r="E107" s="4" t="inlineStr">
-        <is>
-          <t>462.50</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
-        <is>
-          <t>+6.5</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>6185</t>
-        </is>
-      </c>
-      <c r="C108" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>幃翔</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>15.70</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="n">
-        <v>-208</v>
       </c>
     </row>
   </sheetData>
@@ -12381,7 +10227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14131,7 +11977,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-07 賣超 TOP 50】</t>
+          <t>【2025-11-07 賣超 TOP 20】</t>
         </is>
       </c>
       <c r="B56" s="3" t="n"/>
@@ -14845,996 +12691,6 @@
       </c>
       <c r="G78" s="4" t="n">
         <v>-674</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>5340</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>建榮</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>47.60</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>-2.3</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="n">
-        <v>-641</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>5289</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>宜鼎</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>456.00</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="n">
-        <v>-634</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>3211</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>順達</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>291.00</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>-615</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>3357</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>臺慶科</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>139.00</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="n">
-        <v>-603</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>6603</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>富強鑫</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>19.50</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="n">
-        <v>-603</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>8299</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>群聯</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>1155.00</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="n">
-        <v>-552</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>6163</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>華電網</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>25.75</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="n">
-        <v>-526</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>4114</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>健喬</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="G86" s="4" t="n">
-        <v>-499</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>6763</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>綠界科技*</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>65.10</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>-492</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>3483</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>力致</t>
-        </is>
-      </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>-447</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>3324</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>雙鴻</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>1045.00</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>-25.0</t>
-        </is>
-      </c>
-      <c r="G89" s="4" t="n">
-        <v>-430</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
-        <is>
-          <t>達航科技</t>
-        </is>
-      </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>37.30</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>-423</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>6217</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>中探針</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>52.90</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>-2.6</t>
-        </is>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>-414</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>博磊</t>
-        </is>
-      </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>50.50</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>-4.2</t>
-        </is>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>-403</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>5309</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>系統電</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>61.10</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>-392</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>6111</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>大宇資</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>48.80</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>-2.3</t>
-        </is>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>-384</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>6290</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>良維</t>
-        </is>
-      </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>191.00</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>-7.5</t>
-        </is>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>-384</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>6180</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>橘子</t>
-        </is>
-      </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>56.20</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>-357</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>晟德</t>
-        </is>
-      </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>34.60</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>-355</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>6244</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>茂迪</t>
-        </is>
-      </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="n">
-        <v>-342</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>5864</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
-        <is>
-          <t>金融保險業</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>致和證</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>16.10</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>-335</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>6683</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>雍智科技</t>
-        </is>
-      </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>399.50</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>-20.0</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>-327</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>6584</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>南俊國際</t>
-        </is>
-      </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>288.00</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
-      <c r="G101" s="4" t="n">
-        <v>-303</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B102" s="4" t="inlineStr">
-        <is>
-          <t>4939</t>
-        </is>
-      </c>
-      <c r="C102" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
-        <is>
-          <t>亞電</t>
-        </is>
-      </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>-274</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B103" s="4" t="inlineStr">
-        <is>
-          <t>6104</t>
-        </is>
-      </c>
-      <c r="C103" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
-        <is>
-          <t>創惟</t>
-        </is>
-      </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>100.50</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>-260</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B104" s="4" t="inlineStr">
-        <is>
-          <t>3213</t>
-        </is>
-      </c>
-      <c r="C104" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
-        <is>
-          <t>茂訊</t>
-        </is>
-      </c>
-      <c r="E104" s="4" t="inlineStr">
-        <is>
-          <t>102.50</t>
-        </is>
-      </c>
-      <c r="F104" s="4" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="n">
-        <v>-251</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="4" t="inlineStr">
-        <is>
-          <t>3088</t>
-        </is>
-      </c>
-      <c r="C105" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>艾訊</t>
-        </is>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>78.40</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
-        <is>
-          <t>-2.4</t>
-        </is>
-      </c>
-      <c r="G105" s="4" t="n">
-        <v>-248</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B106" s="4" t="inlineStr">
-        <is>
-          <t>3293</t>
-        </is>
-      </c>
-      <c r="C106" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
-        <is>
-          <t>鈊象</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>726.00</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>-247</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>8044</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>網家</t>
-        </is>
-      </c>
-      <c r="E107" s="4" t="inlineStr">
-        <is>
-          <t>31.35</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>-236</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>3234</t>
-        </is>
-      </c>
-      <c r="C108" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>光環</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>37.30</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t>-1.35</t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="n">
-        <v>-234</v>
       </c>
     </row>
   </sheetData>
@@ -15852,7 +12708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17602,7 +14458,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-06 賣超 TOP 50】</t>
+          <t>【2025-11-06 賣超 TOP 20】</t>
         </is>
       </c>
       <c r="B56" s="3" t="n"/>
@@ -18316,996 +15172,6 @@
       </c>
       <c r="G78" s="4" t="n">
         <v>-773</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>5425</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>台半</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>54.60</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>+1.6</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="n">
-        <v>-731</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>5483</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>中美晶</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>117.00</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="n">
-        <v>-671</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>3709</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>鑫聯大投控</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>47.60</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>-1.1</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>-639</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>3323</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>加百裕</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>41.55</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>+0.55</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="n">
-        <v>-634</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>4979</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>華星光</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>194.00</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="n">
-        <v>-597</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>8054</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>安國</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>124.50</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="n">
-        <v>-591</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>5314</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>世紀*</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="n">
-        <v>-529</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>3217</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>優群</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>189.00</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="G86" s="4" t="n">
-        <v>-472</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>8299</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>群聯</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>1160.00</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>+75.0</t>
-        </is>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>-440</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>8183</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>精星</t>
-        </is>
-      </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>34.80</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>+1.2</t>
-        </is>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>-415</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>6411</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>晶焱</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>85.90</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="G89" s="4" t="n">
-        <v>-407</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>6274</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
-        <is>
-          <t>台燿</t>
-        </is>
-      </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>397.50</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>-404</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>4157</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>太景*-KY</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>-381</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>4128</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>中天</t>
-        </is>
-      </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>20.95</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>-360</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>6190</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>萬泰科</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>42.95</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>-346</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>8069</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>元太</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>205.00</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>-309</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>5289</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>宜鼎</t>
-        </is>
-      </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>455.00</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>+13.5</t>
-        </is>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>-298</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>3236</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>千如</t>
-        </is>
-      </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>22.90</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>-276</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>4991</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>環宇-KY</t>
-        </is>
-      </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>163.50</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>-269</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>信立</t>
-        </is>
-      </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>73.10</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="n">
-        <v>-264</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>4974</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>亞泰</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>73.20</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>-264</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>3689</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>湧德</t>
-        </is>
-      </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>113.50</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>-262</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>6629</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>居家生活</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>泰金-KY</t>
-        </is>
-      </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>155.00</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>+13.0</t>
-        </is>
-      </c>
-      <c r="G101" s="4" t="n">
-        <v>-253</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B102" s="4" t="inlineStr">
-        <is>
-          <t>8086</t>
-        </is>
-      </c>
-      <c r="C102" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
-        <is>
-          <t>宏捷科</t>
-        </is>
-      </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>119.50</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>-239</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B103" s="4" t="inlineStr">
-        <is>
-          <t>5201</t>
-        </is>
-      </c>
-      <c r="C103" s="4" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
-        <is>
-          <t>凱衛</t>
-        </is>
-      </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>43.25</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-2.25</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B104" s="4" t="inlineStr">
-        <is>
-          <t>6143</t>
-        </is>
-      </c>
-      <c r="C104" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
-        <is>
-          <t>振曜</t>
-        </is>
-      </c>
-      <c r="E104" s="4" t="inlineStr">
-        <is>
-          <t>134.50</t>
-        </is>
-      </c>
-      <c r="F104" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="n">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="4" t="inlineStr">
-        <is>
-          <t>6146</t>
-        </is>
-      </c>
-      <c r="C105" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>耕興</t>
-        </is>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>176.00</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="G105" s="4" t="n">
-        <v>-215</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B106" s="4" t="inlineStr">
-        <is>
-          <t>3289</t>
-        </is>
-      </c>
-      <c r="C106" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
-        <is>
-          <t>宜特</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>109.00</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>nannan</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>-213</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>4768</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="inlineStr">
-        <is>
-          <t>化學工業</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>晶呈科技</t>
-        </is>
-      </c>
-      <c r="E107" s="4" t="inlineStr">
-        <is>
-          <t>245.50</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>-212</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>3483</t>
-        </is>
-      </c>
-      <c r="C108" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>力致</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="n">
-        <v>-196</v>
       </c>
     </row>
   </sheetData>
@@ -19323,7 +15189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21073,7 +16939,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-05 賣超 TOP 50】</t>
+          <t>【2025-11-05 賣超 TOP 20】</t>
         </is>
       </c>
       <c r="B56" s="3" t="n"/>
@@ -21789,996 +17655,6 @@
         <v>-567</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>1785</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>光洋科</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>55.70</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="G79" s="4" t="n">
-        <v>-556</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>3483</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>力致</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>111.50</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G80" s="4" t="n">
-        <v>-540</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>3374</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>精材</t>
-        </is>
-      </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>147.50</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>-529</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>5009</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>榮剛</t>
-        </is>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>34.25</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
-      <c r="G82" s="4" t="n">
-        <v>-514</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>5439</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>高技</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>330.50</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>-9.5</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="n">
-        <v>-476</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>5864</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>金融保險業</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>致和證</t>
-        </is>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>15.75</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="G84" s="4" t="n">
-        <v>-419</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>3289</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>宜特</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="n">
-        <v>-403</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>4991</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>環宇-KY</t>
-        </is>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>169.50</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
-      <c r="G86" s="4" t="n">
-        <v>-403</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>4933</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>友輝</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>62.10</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-2.4</t>
-        </is>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>-402</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>6596</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>寬宏藝術</t>
-        </is>
-      </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>164.00</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>-10.5</t>
-        </is>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>-398</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>6016</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>金融保險業</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>康和證</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="G89" s="4" t="n">
-        <v>-365</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
-        <is>
-          <t>永昕</t>
-        </is>
-      </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>32.65</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>-1.45</t>
-        </is>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>-360</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>6265</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>電子通路業</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>方土昶</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>-355</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>3529</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>力旺</t>
-        </is>
-      </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>1955.00</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>-346</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>5425</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>台半</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>53.00</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>-346</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>6649</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>台生材</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>60.70</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>-6.7</t>
-        </is>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>-338</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>6161</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>捷波</t>
-        </is>
-      </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>49.25</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>-5.35</t>
-        </is>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>-328</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>3081</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>聯亞</t>
-        </is>
-      </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>389.00</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-11.5</t>
-        </is>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>-318</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>2743</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>觀光餐旅</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>山富</t>
-        </is>
-      </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>-306</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>3324</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>雙鴻</t>
-        </is>
-      </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>1020.00</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="G98" s="4" t="n">
-        <v>-278</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>5512</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
-        <is>
-          <t>建材營造業</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>力麒</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>-258</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>8034</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>榮群</t>
-        </is>
-      </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>+0.55</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>晉泰</t>
-        </is>
-      </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>36.30</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
-      <c r="G101" s="4" t="n">
-        <v>-230</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B102" s="4" t="inlineStr">
-        <is>
-          <t>3362</t>
-        </is>
-      </c>
-      <c r="C102" s="4" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
-        <is>
-          <t>先進光</t>
-        </is>
-      </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>95.50</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>-1.7</t>
-        </is>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>-223</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B103" s="4" t="inlineStr">
-        <is>
-          <t>5315</t>
-        </is>
-      </c>
-      <c r="C103" s="4" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
-        <is>
-          <t>光聯</t>
-        </is>
-      </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>-218</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B104" s="4" t="inlineStr">
-        <is>
-          <t>8044</t>
-        </is>
-      </c>
-      <c r="C104" s="4" t="inlineStr">
-        <is>
-          <t>數位雲端</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
-        <is>
-          <t>網家</t>
-        </is>
-      </c>
-      <c r="E104" s="4" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="F104" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="n">
-        <v>-218</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="4" t="inlineStr">
-        <is>
-          <t>3265</t>
-        </is>
-      </c>
-      <c r="C105" s="4" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>台星科</t>
-        </is>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
-        <is>
-          <t>-2.9</t>
-        </is>
-      </c>
-      <c r="G105" s="4" t="n">
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B106" s="4" t="inlineStr">
-        <is>
-          <t>6015</t>
-        </is>
-      </c>
-      <c r="C106" s="4" t="inlineStr">
-        <is>
-          <t>金融保險業</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
-        <is>
-          <t>宏遠證</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>4130</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>健亞</t>
-        </is>
-      </c>
-      <c r="E107" s="4" t="inlineStr">
-        <is>
-          <t>20.55</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>-201</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>5309</t>
-        </is>
-      </c>
-      <c r="C108" s="4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>系統電</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>62.10</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="n">
-        <v>-199</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251124" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251121" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251120" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251119" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251118" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251124" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251121" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251120" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251119" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251118" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251124" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251121" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251120" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251119" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251118" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251124" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251121" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251120" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251119" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251118" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251127" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251126" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251125" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251124" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251121" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251126" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251125" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251124" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251121" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251203" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251202" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251201" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251128" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251127" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251128" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251128" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251203" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251202" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251201" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251128" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251127" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -3314,7 +3314,7 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/03</t>
+          <t>27, 28, 03</t>
         </is>
       </c>
       <c r="F102" s="4" t="n">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="H102" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02</t>
+          <t>01, 02</t>
         </is>
       </c>
       <c r="I102" s="4" t="n">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/01, 12/02</t>
+          <t>27, 28, 01, 02</t>
         </is>
       </c>
       <c r="F103" s="4" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I103" s="4" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/01</t>
+          <t>27, 28, 01</t>
         </is>
       </c>
       <c r="F104" s="4" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H104" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I104" s="4" t="n">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02</t>
+          <t>01, 02</t>
         </is>
       </c>
       <c r="F105" s="4" t="n">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I105" s="4" t="n">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02, 12/03</t>
+          <t>27, 02, 03</t>
         </is>
       </c>
       <c r="F106" s="4" t="n">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H106" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I106" s="4" t="n">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F107" s="4" t="n">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I107" s="4" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/01, 12/03</t>
+          <t>27, 28, 01, 03</t>
         </is>
       </c>
       <c r="F108" s="4" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H108" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I108" s="4" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/01</t>
+          <t>27, 28, 01</t>
         </is>
       </c>
       <c r="F109" s="4" t="n">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I109" s="4" t="n">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/03</t>
+          <t>27, 03</t>
         </is>
       </c>
       <c r="F110" s="4" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H110" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02</t>
+          <t>27, 02</t>
         </is>
       </c>
       <c r="F111" s="4" t="n">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H111" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28</t>
+          <t>27, 28</t>
         </is>
       </c>
       <c r="F112" s="4" t="n">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I112" s="4" t="n">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F113" s="4" t="n">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I113" s="4" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02</t>
+          <t>28, 02</t>
         </is>
       </c>
       <c r="F114" s="4" t="n">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/01, 12/03</t>
+          <t>27, 01, 03</t>
         </is>
       </c>
       <c r="I114" s="4" t="n">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01</t>
+          <t>28, 01</t>
         </is>
       </c>
       <c r="F115" s="4" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I115" s="4" t="n">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F116" s="4" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="H116" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I116" s="4" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F117" s="4" t="n">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I117" s="4" t="n">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01</t>
+          <t>28, 01</t>
         </is>
       </c>
       <c r="F118" s="4" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02</t>
+          <t>27, 02</t>
         </is>
       </c>
       <c r="I118" s="4" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F119" s="4" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I119" s="4" t="n">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F120" s="4" t="n">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="H120" s="4" t="inlineStr">
         <is>
-          <t>12/02, 12/03</t>
+          <t>02, 03</t>
         </is>
       </c>
       <c r="I120" s="4" t="n">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>12/02, 12/03</t>
+          <t>02, 03</t>
         </is>
       </c>
       <c r="F121" s="4" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I121" s="4" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F122" s="4" t="n">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I122" s="4" t="n">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F123" s="4" t="n">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I123" s="4" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F124" s="4" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H124" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28</t>
+          <t>27, 28</t>
         </is>
       </c>
       <c r="I124" s="4" t="n">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/03</t>
+          <t>01, 03</t>
         </is>
       </c>
       <c r="F125" s="4" t="n">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28</t>
+          <t>27, 28</t>
         </is>
       </c>
       <c r="I125" s="4" t="n">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F126" s="4" t="n">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="H126" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/03</t>
+          <t>01, 03</t>
         </is>
       </c>
       <c r="I126" s="4" t="n">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F127" s="4" t="n">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01, 12/02</t>
+          <t>28, 01, 02</t>
         </is>
       </c>
       <c r="I127" s="4" t="n">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F128" s="4" t="n">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H128" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I128" s="4" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02</t>
+          <t>01, 02</t>
         </is>
       </c>
       <c r="F129" s="4" t="n">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="H129" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/03</t>
+          <t>27, 28, 03</t>
         </is>
       </c>
       <c r="I129" s="4" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/03</t>
+          <t>27, 03</t>
         </is>
       </c>
       <c r="F130" s="4" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="H130" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01</t>
+          <t>28, 01</t>
         </is>
       </c>
       <c r="I130" s="4" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02</t>
+          <t>28, 02</t>
         </is>
       </c>
       <c r="F131" s="4" t="n">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="H131" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/01, 12/03</t>
+          <t>27, 01, 03</t>
         </is>
       </c>
       <c r="I131" s="4" t="n">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F132" s="4" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H132" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/03</t>
+          <t>01, 03</t>
         </is>
       </c>
       <c r="I132" s="4" t="n">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F133" s="4" t="n">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="H133" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02</t>
+          <t>28, 02</t>
         </is>
       </c>
       <c r="I133" s="4" t="n">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F134" s="4" t="n">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="H134" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01, 12/02</t>
+          <t>28, 01, 02</t>
         </is>
       </c>
       <c r="I134" s="4" t="n">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F135" s="4" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H135" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/03</t>
+          <t>27, 28, 03</t>
         </is>
       </c>
       <c r="I135" s="4" t="n">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F136" s="4" t="n">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="H136" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01, 12/03</t>
+          <t>28, 01, 03</t>
         </is>
       </c>
       <c r="I136" s="4" t="n">

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -209,6 +209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -597,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +635,7 @@
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -644,6 +648,7 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -676,6 +681,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -706,6 +712,7 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -736,6 +743,7 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -766,6 +774,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -792,6 +801,7 @@
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -818,6 +828,7 @@
       <c r="H8" s="4" t="n"/>
       <c r="I8" s="4" t="n"/>
       <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -848,6 +859,7 @@
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -874,6 +886,7 @@
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -904,6 +917,7 @@
       <c r="H11" s="4" t="n"/>
       <c r="I11" s="4" t="n"/>
       <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -934,6 +948,7 @@
       <c r="H12" s="4" t="n"/>
       <c r="I12" s="4" t="n"/>
       <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -964,6 +979,7 @@
       <c r="H13" s="4" t="n"/>
       <c r="I13" s="4" t="n"/>
       <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -990,6 +1006,7 @@
       <c r="H14" s="4" t="n"/>
       <c r="I14" s="4" t="n"/>
       <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1020,6 +1037,7 @@
       <c r="H15" s="4" t="n"/>
       <c r="I15" s="4" t="n"/>
       <c r="J15" s="4" t="n"/>
+      <c r="K15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1050,6 +1068,7 @@
       <c r="H16" s="4" t="n"/>
       <c r="I16" s="4" t="n"/>
       <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1080,6 +1099,7 @@
       <c r="H17" s="4" t="n"/>
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="4" t="n"/>
+      <c r="K17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1106,6 +1126,7 @@
       <c r="H18" s="4" t="n"/>
       <c r="I18" s="4" t="n"/>
       <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1132,6 +1153,7 @@
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1158,6 +1180,7 @@
       <c r="H20" s="4" t="n"/>
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1184,6 +1207,7 @@
       <c r="H21" s="4" t="n"/>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1214,6 +1238,7 @@
       <c r="H22" s="4" t="n"/>
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1240,6 +1265,7 @@
       <c r="H23" s="4" t="n"/>
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -1266,6 +1292,7 @@
       <c r="H24" s="4" t="n"/>
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="4" t="n"/>
+      <c r="K24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1292,6 +1319,7 @@
       <c r="H25" s="4" t="n"/>
       <c r="I25" s="4" t="n"/>
       <c r="J25" s="4" t="n"/>
+      <c r="K25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1322,6 +1350,7 @@
       <c r="H26" s="4" t="n"/>
       <c r="I26" s="4" t="n"/>
       <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1348,6 +1377,7 @@
       <c r="H27" s="4" t="n"/>
       <c r="I27" s="4" t="n"/>
       <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1374,6 +1404,7 @@
       <c r="H28" s="4" t="n"/>
       <c r="I28" s="4" t="n"/>
       <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1400,6 +1431,7 @@
       <c r="H29" s="4" t="n"/>
       <c r="I29" s="4" t="n"/>
       <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1430,6 +1462,7 @@
       <c r="H30" s="4" t="n"/>
       <c r="I30" s="4" t="n"/>
       <c r="J30" s="4" t="n"/>
+      <c r="K30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1456,6 +1489,7 @@
       <c r="H31" s="4" t="n"/>
       <c r="I31" s="4" t="n"/>
       <c r="J31" s="4" t="n"/>
+      <c r="K31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1486,6 +1520,7 @@
       <c r="H32" s="4" t="n"/>
       <c r="I32" s="4" t="n"/>
       <c r="J32" s="4" t="n"/>
+      <c r="K32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1512,6 +1547,7 @@
       <c r="H33" s="4" t="n"/>
       <c r="I33" s="4" t="n"/>
       <c r="J33" s="4" t="n"/>
+      <c r="K33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1538,6 +1574,7 @@
       <c r="H34" s="4" t="n"/>
       <c r="I34" s="4" t="n"/>
       <c r="J34" s="4" t="n"/>
+      <c r="K34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1564,6 +1601,7 @@
       <c r="H35" s="4" t="n"/>
       <c r="I35" s="4" t="n"/>
       <c r="J35" s="4" t="n"/>
+      <c r="K35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -1590,6 +1628,7 @@
       <c r="H36" s="4" t="n"/>
       <c r="I36" s="4" t="n"/>
       <c r="J36" s="4" t="n"/>
+      <c r="K36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -1616,6 +1655,7 @@
       <c r="H37" s="4" t="n"/>
       <c r="I37" s="4" t="n"/>
       <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1642,6 +1682,7 @@
       <c r="H38" s="4" t="n"/>
       <c r="I38" s="4" t="n"/>
       <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -1668,6 +1709,7 @@
       <c r="H39" s="4" t="n"/>
       <c r="I39" s="4" t="n"/>
       <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1694,6 +1736,7 @@
       <c r="H40" s="4" t="n"/>
       <c r="I40" s="4" t="n"/>
       <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1724,6 +1767,7 @@
       <c r="H41" s="4" t="n"/>
       <c r="I41" s="4" t="n"/>
       <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1750,6 +1794,7 @@
       <c r="H42" s="4" t="n"/>
       <c r="I42" s="4" t="n"/>
       <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -1780,6 +1825,7 @@
       <c r="H43" s="4" t="n"/>
       <c r="I43" s="4" t="n"/>
       <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -1806,6 +1852,7 @@
       <c r="H44" s="4" t="n"/>
       <c r="I44" s="4" t="n"/>
       <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -1836,6 +1883,7 @@
       <c r="H45" s="4" t="n"/>
       <c r="I45" s="4" t="n"/>
       <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -1866,6 +1914,7 @@
       <c r="H46" s="4" t="n"/>
       <c r="I46" s="4" t="n"/>
       <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
@@ -1878,6 +1927,7 @@
       <c r="H47" s="4" t="n"/>
       <c r="I47" s="4" t="n"/>
       <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
@@ -1890,6 +1940,7 @@
       <c r="H48" s="4" t="n"/>
       <c r="I48" s="4" t="n"/>
       <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -1906,6 +1957,7 @@
       <c r="H49" s="3" t="n"/>
       <c r="I49" s="3" t="n"/>
       <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n"/>
@@ -1918,6 +1970,7 @@
       <c r="H50" s="4" t="n"/>
       <c r="I50" s="4" t="n"/>
       <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -1950,6 +2003,7 @@
       <c r="H51" s="4" t="n"/>
       <c r="I51" s="4" t="n"/>
       <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -1980,6 +2034,7 @@
       <c r="H52" s="4" t="n"/>
       <c r="I52" s="4" t="n"/>
       <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -2006,6 +2061,7 @@
       <c r="H53" s="4" t="n"/>
       <c r="I53" s="4" t="n"/>
       <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -2036,6 +2092,7 @@
       <c r="H54" s="4" t="n"/>
       <c r="I54" s="4" t="n"/>
       <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -2062,6 +2119,7 @@
       <c r="H55" s="4" t="n"/>
       <c r="I55" s="4" t="n"/>
       <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2088,6 +2146,7 @@
       <c r="H56" s="4" t="n"/>
       <c r="I56" s="4" t="n"/>
       <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -2118,6 +2177,7 @@
       <c r="H57" s="4" t="n"/>
       <c r="I57" s="4" t="n"/>
       <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -2148,6 +2208,7 @@
       <c r="H58" s="4" t="n"/>
       <c r="I58" s="4" t="n"/>
       <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -2174,6 +2235,7 @@
       <c r="H59" s="4" t="n"/>
       <c r="I59" s="4" t="n"/>
       <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -2200,6 +2262,7 @@
       <c r="H60" s="4" t="n"/>
       <c r="I60" s="4" t="n"/>
       <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -2226,6 +2289,7 @@
       <c r="H61" s="4" t="n"/>
       <c r="I61" s="4" t="n"/>
       <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -2252,6 +2316,7 @@
       <c r="H62" s="4" t="n"/>
       <c r="I62" s="4" t="n"/>
       <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -2282,6 +2347,7 @@
       <c r="H63" s="4" t="n"/>
       <c r="I63" s="4" t="n"/>
       <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -2308,6 +2374,7 @@
       <c r="H64" s="4" t="n"/>
       <c r="I64" s="4" t="n"/>
       <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -2334,6 +2401,7 @@
       <c r="H65" s="4" t="n"/>
       <c r="I65" s="4" t="n"/>
       <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -2364,6 +2432,7 @@
       <c r="H66" s="4" t="n"/>
       <c r="I66" s="4" t="n"/>
       <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -2394,6 +2463,7 @@
       <c r="H67" s="4" t="n"/>
       <c r="I67" s="4" t="n"/>
       <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -2424,6 +2494,7 @@
       <c r="H68" s="4" t="n"/>
       <c r="I68" s="4" t="n"/>
       <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -2450,6 +2521,7 @@
       <c r="H69" s="4" t="n"/>
       <c r="I69" s="4" t="n"/>
       <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -2476,6 +2548,7 @@
       <c r="H70" s="4" t="n"/>
       <c r="I70" s="4" t="n"/>
       <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -2506,6 +2579,7 @@
       <c r="H71" s="4" t="n"/>
       <c r="I71" s="4" t="n"/>
       <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -2532,6 +2606,7 @@
       <c r="H72" s="4" t="n"/>
       <c r="I72" s="4" t="n"/>
       <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -2562,6 +2637,7 @@
       <c r="H73" s="4" t="n"/>
       <c r="I73" s="4" t="n"/>
       <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -2588,6 +2664,7 @@
       <c r="H74" s="4" t="n"/>
       <c r="I74" s="4" t="n"/>
       <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -2614,6 +2691,7 @@
       <c r="H75" s="4" t="n"/>
       <c r="I75" s="4" t="n"/>
       <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -2644,6 +2722,7 @@
       <c r="H76" s="4" t="n"/>
       <c r="I76" s="4" t="n"/>
       <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -2674,6 +2753,7 @@
       <c r="H77" s="4" t="n"/>
       <c r="I77" s="4" t="n"/>
       <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -2700,6 +2780,7 @@
       <c r="H78" s="4" t="n"/>
       <c r="I78" s="4" t="n"/>
       <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -2726,6 +2807,7 @@
       <c r="H79" s="4" t="n"/>
       <c r="I79" s="4" t="n"/>
       <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -2752,6 +2834,7 @@
       <c r="H80" s="4" t="n"/>
       <c r="I80" s="4" t="n"/>
       <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -2778,6 +2861,7 @@
       <c r="H81" s="4" t="n"/>
       <c r="I81" s="4" t="n"/>
       <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -2804,6 +2888,7 @@
       <c r="H82" s="4" t="n"/>
       <c r="I82" s="4" t="n"/>
       <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -2830,6 +2915,7 @@
       <c r="H83" s="4" t="n"/>
       <c r="I83" s="4" t="n"/>
       <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -2856,6 +2942,7 @@
       <c r="H84" s="4" t="n"/>
       <c r="I84" s="4" t="n"/>
       <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -2882,6 +2969,7 @@
       <c r="H85" s="4" t="n"/>
       <c r="I85" s="4" t="n"/>
       <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -2908,6 +2996,7 @@
       <c r="H86" s="4" t="n"/>
       <c r="I86" s="4" t="n"/>
       <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -2934,6 +3023,7 @@
       <c r="H87" s="4" t="n"/>
       <c r="I87" s="4" t="n"/>
       <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -2960,6 +3050,7 @@
       <c r="H88" s="4" t="n"/>
       <c r="I88" s="4" t="n"/>
       <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -2986,6 +3077,7 @@
       <c r="H89" s="4" t="n"/>
       <c r="I89" s="4" t="n"/>
       <c r="J89" s="4" t="n"/>
+      <c r="K89" s="4" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -3016,6 +3108,7 @@
       <c r="H90" s="4" t="n"/>
       <c r="I90" s="4" t="n"/>
       <c r="J90" s="4" t="n"/>
+      <c r="K90" s="4" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -3042,6 +3135,7 @@
       <c r="H91" s="4" t="n"/>
       <c r="I91" s="4" t="n"/>
       <c r="J91" s="4" t="n"/>
+      <c r="K91" s="4" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -3068,6 +3162,7 @@
       <c r="H92" s="4" t="n"/>
       <c r="I92" s="4" t="n"/>
       <c r="J92" s="4" t="n"/>
+      <c r="K92" s="4" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -3098,6 +3193,7 @@
       <c r="H93" s="4" t="n"/>
       <c r="I93" s="4" t="n"/>
       <c r="J93" s="4" t="n"/>
+      <c r="K93" s="4" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -3128,6 +3224,7 @@
       <c r="H94" s="4" t="n"/>
       <c r="I94" s="4" t="n"/>
       <c r="J94" s="4" t="n"/>
+      <c r="K94" s="4" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -3158,6 +3255,7 @@
       <c r="H95" s="4" t="n"/>
       <c r="I95" s="4" t="n"/>
       <c r="J95" s="4" t="n"/>
+      <c r="K95" s="4" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -3188,6 +3286,7 @@
       <c r="H96" s="4" t="n"/>
       <c r="I96" s="4" t="n"/>
       <c r="J96" s="4" t="n"/>
+      <c r="K96" s="4" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="n"/>
@@ -3200,6 +3299,7 @@
       <c r="H97" s="4" t="n"/>
       <c r="I97" s="4" t="n"/>
       <c r="J97" s="4" t="n"/>
+      <c r="K97" s="4" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="n"/>
@@ -3212,6 +3312,7 @@
       <c r="H98" s="4" t="n"/>
       <c r="I98" s="4" t="n"/>
       <c r="J98" s="4" t="n"/>
+      <c r="K98" s="4" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
@@ -3228,6 +3329,7 @@
       <c r="H99" s="3" t="n"/>
       <c r="I99" s="3" t="n"/>
       <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="n"/>
@@ -3240,6 +3342,7 @@
       <c r="H100" s="4" t="n"/>
       <c r="I100" s="4" t="n"/>
       <c r="J100" s="4" t="n"/>
+      <c r="K100" s="4" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
@@ -3292,6 +3395,11 @@
           <t>淨買賣超</t>
         </is>
       </c>
+      <c r="K101" s="8" t="inlineStr">
+        <is>
+          <t>日期狀態</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -3334,6 +3442,11 @@
       <c r="J102" s="4" t="n">
         <v>15831</v>
       </c>
+      <c r="K102" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('sell', '02'), ('sell', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -3376,6 +3489,11 @@
       <c r="J103" s="4" t="n">
         <v>7826</v>
       </c>
+      <c r="K103" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('buy', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -3418,6 +3536,11 @@
       <c r="J104" s="4" t="n">
         <v>6979</v>
       </c>
+      <c r="K104" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('buy', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -3460,6 +3583,11 @@
       <c r="J105" s="4" t="n">
         <v>4547</v>
       </c>
+      <c r="K105" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('buy', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
@@ -3502,6 +3630,11 @@
       <c r="J106" s="4" t="n">
         <v>3724</v>
       </c>
+      <c r="K106" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('buy', '02'), ('neutral', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
@@ -3544,6 +3677,11 @@
       <c r="J107" s="4" t="n">
         <v>3291</v>
       </c>
+      <c r="K107" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('sell', '01'), ('neutral', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
@@ -3586,6 +3724,11 @@
       <c r="J108" s="4" t="n">
         <v>2911</v>
       </c>
+      <c r="K108" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('sell', '02'), ('buy', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
@@ -3628,6 +3771,11 @@
       <c r="J109" s="4" t="n">
         <v>2899</v>
       </c>
+      <c r="K109" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('neutral', '02'), ('buy', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
@@ -3670,6 +3818,11 @@
       <c r="J110" s="4" t="n">
         <v>2516</v>
       </c>
+      <c r="K110" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('sell', '02'), ('neutral', '01'), ('neutral', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
@@ -3712,6 +3865,11 @@
       <c r="J111" s="4" t="n">
         <v>2240</v>
       </c>
+      <c r="K111" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('neutral', '01'), ('neutral', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
@@ -3754,6 +3912,11 @@
       <c r="J112" s="4" t="n">
         <v>1917</v>
       </c>
+      <c r="K112" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('neutral', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
@@ -3796,6 +3959,11 @@
       <c r="J113" s="4" t="n">
         <v>1089</v>
       </c>
+      <c r="K113" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('neutral', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
@@ -3838,6 +4006,11 @@
       <c r="J114" s="4" t="n">
         <v>835</v>
       </c>
+      <c r="K114" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -3880,6 +4053,11 @@
       <c r="J115" s="4" t="n">
         <v>802</v>
       </c>
+      <c r="K115" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('neutral', '02'), ('buy', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
@@ -3922,6 +4100,11 @@
       <c r="J116" s="4" t="n">
         <v>365</v>
       </c>
+      <c r="K116" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('neutral', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
@@ -3964,6 +4147,11 @@
       <c r="J117" s="4" t="n">
         <v>236</v>
       </c>
+      <c r="K117" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('neutral', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
@@ -4006,6 +4194,11 @@
       <c r="J118" s="4" t="n">
         <v>210</v>
       </c>
+      <c r="K118" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('buy', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
@@ -4048,6 +4241,11 @@
       <c r="J119" s="4" t="n">
         <v>166</v>
       </c>
+      <c r="K119" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('neutral', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
@@ -4090,6 +4288,11 @@
       <c r="J120" s="4" t="n">
         <v>-160</v>
       </c>
+      <c r="K120" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('sell', '02'), ('neutral', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
@@ -4132,6 +4335,11 @@
       <c r="J121" s="4" t="n">
         <v>-172</v>
       </c>
+      <c r="K121" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('buy', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
@@ -4174,6 +4382,11 @@
       <c r="J122" s="4" t="n">
         <v>-239</v>
       </c>
+      <c r="K122" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
@@ -4216,6 +4429,11 @@
       <c r="J123" s="4" t="n">
         <v>-299</v>
       </c>
+      <c r="K123" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('buy', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
@@ -4258,6 +4476,11 @@
       <c r="J124" s="4" t="n">
         <v>-522</v>
       </c>
+      <c r="K124" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('neutral', '01'), ('sell', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
@@ -4300,6 +4523,11 @@
       <c r="J125" s="4" t="n">
         <v>-1185</v>
       </c>
+      <c r="K125" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('buy', '01'), ('sell', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
@@ -4342,6 +4570,11 @@
       <c r="J126" s="4" t="n">
         <v>-1200</v>
       </c>
+      <c r="K126" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
@@ -4384,6 +4617,11 @@
       <c r="J127" s="4" t="n">
         <v>-1353</v>
       </c>
+      <c r="K127" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('sell', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
@@ -4426,6 +4664,11 @@
       <c r="J128" s="4" t="n">
         <v>-1673</v>
       </c>
+      <c r="K128" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
@@ -4468,6 +4711,11 @@
       <c r="J129" s="4" t="n">
         <v>-1760</v>
       </c>
+      <c r="K129" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('buy', '01'), ('sell', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
@@ -4510,6 +4758,11 @@
       <c r="J130" s="4" t="n">
         <v>-2019</v>
       </c>
+      <c r="K130" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('sell', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
@@ -4552,6 +4805,11 @@
       <c r="J131" s="4" t="n">
         <v>-2289</v>
       </c>
+      <c r="K131" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
@@ -4594,6 +4852,11 @@
       <c r="J132" s="4" t="n">
         <v>-2394</v>
       </c>
+      <c r="K132" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
@@ -4636,6 +4899,11 @@
       <c r="J133" s="4" t="n">
         <v>-4375</v>
       </c>
+      <c r="K133" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('buy', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
@@ -4678,6 +4946,11 @@
       <c r="J134" s="4" t="n">
         <v>-4952</v>
       </c>
+      <c r="K134" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('sell', '02'), ('sell', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
@@ -4720,6 +4993,11 @@
       <c r="J135" s="4" t="n">
         <v>-8361</v>
       </c>
+      <c r="K135" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('neutral', '02'), ('buy', '01'), ('sell', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
@@ -4762,12 +5040,17 @@
       <c r="J136" s="4" t="n">
         <v>-21865</v>
       </c>
+      <c r="K136" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A99:J99"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A99:K99"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4828,52 +5111,52 @@
       <c r="J2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I3" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -4912,7 +5195,7 @@
         <v>4655</v>
       </c>
       <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="12" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(8.3σ)+連續買超</t>
         </is>
@@ -4955,12 +5238,12 @@
       <c r="G5" s="4" t="n">
         <v>3935</v>
       </c>
-      <c r="H5" s="13" t="inlineStr">
+      <c r="H5" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I5" s="12" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(14.3σ)</t>
         </is>
@@ -5004,7 +5287,7 @@
         <v>3701</v>
       </c>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="12" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(5.0σ)</t>
         </is>
@@ -5047,12 +5330,12 @@
       <c r="G7" s="4" t="n">
         <v>2234</v>
       </c>
-      <c r="H7" s="13" t="inlineStr">
+      <c r="H7" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I7" s="12" t="inlineStr">
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -5095,7 +5378,7 @@
       <c r="G8" s="4" t="n">
         <v>2233</v>
       </c>
-      <c r="H8" s="13" t="inlineStr">
+      <c r="H8" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -5172,7 +5455,7 @@
         <v>1377</v>
       </c>
       <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="12" t="inlineStr">
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5283,12 +5566,12 @@
       <c r="G13" s="4" t="n">
         <v>1090</v>
       </c>
-      <c r="H13" s="13" t="inlineStr">
+      <c r="H13" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I13" s="12" t="inlineStr">
+      <c r="I13" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.6σ)</t>
         </is>
@@ -5331,12 +5614,12 @@
       <c r="G14" s="4" t="n">
         <v>892</v>
       </c>
-      <c r="H14" s="13" t="inlineStr">
+      <c r="H14" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.1σ)</t>
         </is>
@@ -5379,12 +5662,12 @@
       <c r="G15" s="4" t="n">
         <v>818</v>
       </c>
-      <c r="H15" s="13" t="inlineStr">
+      <c r="H15" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I15" s="12" t="inlineStr">
+      <c r="I15" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5496,7 +5779,7 @@
         <v>670</v>
       </c>
       <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr">
+      <c r="I18" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5536,7 +5819,7 @@
         <v>663</v>
       </c>
       <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr">
+      <c r="I19" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5575,7 +5858,7 @@
       <c r="G20" s="4" t="n">
         <v>660</v>
       </c>
-      <c r="H20" s="13" t="inlineStr">
+      <c r="H20" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -5615,7 +5898,7 @@
       <c r="G21" s="4" t="n">
         <v>526</v>
       </c>
-      <c r="H21" s="13" t="inlineStr">
+      <c r="H21" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -5656,7 +5939,7 @@
         <v>472</v>
       </c>
       <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5696,7 +5979,7 @@
         <v>447</v>
       </c>
       <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="12" t="inlineStr">
+      <c r="I23" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5808,7 +6091,7 @@
         <v>433</v>
       </c>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr">
+      <c r="I26" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5884,7 +6167,7 @@
         <v>404</v>
       </c>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="12" t="inlineStr">
+      <c r="I28" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5960,7 +6243,7 @@
         <v>362</v>
       </c>
       <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr">
+      <c r="I30" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(6.3σ)</t>
         </is>
@@ -6040,7 +6323,7 @@
         <v>347</v>
       </c>
       <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr">
+      <c r="I32" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(4.0σ)</t>
         </is>
@@ -6192,7 +6475,7 @@
         <v>289</v>
       </c>
       <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr">
+      <c r="I36" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6268,7 +6551,7 @@
         <v>271</v>
       </c>
       <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr">
+      <c r="I38" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6524,7 +6807,7 @@
         <v>226</v>
       </c>
       <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="12" t="inlineStr">
+      <c r="I45" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.4σ)</t>
         </is>
@@ -6676,7 +6959,7 @@
         <v>214</v>
       </c>
       <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="12" t="inlineStr">
+      <c r="I49" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6824,7 +7107,7 @@
         <v>188</v>
       </c>
       <c r="H53" s="4" t="inlineStr"/>
-      <c r="I53" s="12" t="inlineStr">
+      <c r="I53" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6900,7 +7183,7 @@
         <v>180</v>
       </c>
       <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="12" t="inlineStr">
+      <c r="I55" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6940,7 +7223,7 @@
         <v>176</v>
       </c>
       <c r="H56" s="4" t="inlineStr"/>
-      <c r="I56" s="12" t="inlineStr">
+      <c r="I56" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6980,7 +7263,7 @@
         <v>160</v>
       </c>
       <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="12" t="inlineStr">
+      <c r="I57" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7020,7 +7303,7 @@
         <v>160</v>
       </c>
       <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="12" t="inlineStr">
+      <c r="I58" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7060,7 +7343,7 @@
         <v>159</v>
       </c>
       <c r="H59" s="4" t="inlineStr"/>
-      <c r="I59" s="12" t="inlineStr">
+      <c r="I59" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7100,7 +7383,7 @@
         <v>159</v>
       </c>
       <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="12" t="inlineStr">
+      <c r="I60" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7248,7 +7531,7 @@
         <v>152</v>
       </c>
       <c r="H64" s="4" t="inlineStr"/>
-      <c r="I64" s="12" t="inlineStr">
+      <c r="I64" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.0σ)+連續買超</t>
         </is>
@@ -7328,7 +7611,7 @@
         <v>148</v>
       </c>
       <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="12" t="inlineStr">
+      <c r="I66" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7440,7 +7723,7 @@
         <v>138</v>
       </c>
       <c r="H69" s="4" t="inlineStr"/>
-      <c r="I69" s="12" t="inlineStr">
+      <c r="I69" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7516,7 +7799,7 @@
         <v>135</v>
       </c>
       <c r="H71" s="4" t="inlineStr"/>
-      <c r="I71" s="12" t="inlineStr">
+      <c r="I71" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7556,7 +7839,7 @@
         <v>134</v>
       </c>
       <c r="H72" s="4" t="inlineStr"/>
-      <c r="I72" s="12" t="inlineStr">
+      <c r="I72" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7596,7 +7879,7 @@
         <v>133</v>
       </c>
       <c r="H73" s="4" t="inlineStr"/>
-      <c r="I73" s="12" t="inlineStr">
+      <c r="I73" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7636,7 +7919,7 @@
         <v>126</v>
       </c>
       <c r="H74" s="4" t="inlineStr"/>
-      <c r="I74" s="12" t="inlineStr">
+      <c r="I74" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7676,7 +7959,7 @@
         <v>125</v>
       </c>
       <c r="H75" s="4" t="inlineStr"/>
-      <c r="I75" s="12" t="inlineStr">
+      <c r="I75" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7788,7 +8071,7 @@
         <v>124</v>
       </c>
       <c r="H78" s="4" t="inlineStr"/>
-      <c r="I78" s="12" t="inlineStr">
+      <c r="I78" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7972,7 +8255,7 @@
         <v>111</v>
       </c>
       <c r="H83" s="4" t="inlineStr"/>
-      <c r="I83" s="12" t="inlineStr">
+      <c r="I83" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8012,7 +8295,7 @@
         <v>107</v>
       </c>
       <c r="H84" s="4" t="inlineStr"/>
-      <c r="I84" s="12" t="inlineStr">
+      <c r="I84" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8124,7 +8407,7 @@
         <v>106</v>
       </c>
       <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="12" t="inlineStr">
+      <c r="I87" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8200,7 +8483,7 @@
         <v>105</v>
       </c>
       <c r="H89" s="4" t="inlineStr"/>
-      <c r="I89" s="12" t="inlineStr">
+      <c r="I89" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8240,7 +8523,7 @@
         <v>105</v>
       </c>
       <c r="H90" s="4" t="inlineStr"/>
-      <c r="I90" s="12" t="inlineStr">
+      <c r="I90" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8280,7 +8563,7 @@
         <v>104</v>
       </c>
       <c r="H91" s="4" t="inlineStr"/>
-      <c r="I91" s="12" t="inlineStr">
+      <c r="I91" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8428,7 +8711,7 @@
         <v>99</v>
       </c>
       <c r="H95" s="4" t="inlineStr"/>
-      <c r="I95" s="12" t="inlineStr">
+      <c r="I95" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8468,7 +8751,7 @@
         <v>95</v>
       </c>
       <c r="H96" s="4" t="inlineStr"/>
-      <c r="I96" s="12" t="inlineStr">
+      <c r="I96" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(5.7σ)</t>
         </is>
@@ -8548,7 +8831,7 @@
         <v>93</v>
       </c>
       <c r="H98" s="4" t="inlineStr"/>
-      <c r="I98" s="12" t="inlineStr">
+      <c r="I98" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8588,7 +8871,7 @@
         <v>91</v>
       </c>
       <c r="H99" s="4" t="inlineStr"/>
-      <c r="I99" s="12" t="inlineStr">
+      <c r="I99" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8664,7 +8947,7 @@
         <v>87</v>
       </c>
       <c r="H101" s="4" t="inlineStr"/>
-      <c r="I101" s="12" t="inlineStr">
+      <c r="I101" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8740,7 +9023,7 @@
         <v>85</v>
       </c>
       <c r="H103" s="4" t="inlineStr"/>
-      <c r="I103" s="12" t="inlineStr">
+      <c r="I103" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8835,17 +9118,17 @@
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H108" s="9" t="inlineStr">
+      <c r="H108" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I108" s="10" t="inlineStr">
+      <c r="I108" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J108" s="11" t="inlineStr">
+      <c r="J108" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -8884,7 +9167,7 @@
         <v>-10654</v>
       </c>
       <c r="H109" s="4" t="inlineStr"/>
-      <c r="I109" s="12" t="inlineStr">
+      <c r="I109" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8924,7 +9207,7 @@
         <v>-5032</v>
       </c>
       <c r="H110" s="4" t="inlineStr"/>
-      <c r="I110" s="12" t="inlineStr">
+      <c r="I110" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.1σ)</t>
         </is>
@@ -8968,7 +9251,7 @@
         <v>-3780</v>
       </c>
       <c r="H111" s="4" t="inlineStr"/>
-      <c r="I111" s="12" t="inlineStr">
+      <c r="I111" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.8σ)</t>
         </is>
@@ -9011,12 +9294,12 @@
       <c r="G112" s="4" t="n">
         <v>-3661</v>
       </c>
-      <c r="H112" s="14" t="inlineStr">
+      <c r="H112" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I112" s="12" t="inlineStr">
+      <c r="I112" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.7σ)</t>
         </is>
@@ -9060,7 +9343,7 @@
         <v>-3462</v>
       </c>
       <c r="H113" s="4" t="inlineStr"/>
-      <c r="I113" s="12" t="inlineStr">
+      <c r="I113" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.8σ)</t>
         </is>
@@ -9103,12 +9386,12 @@
       <c r="G114" s="4" t="n">
         <v>-3376</v>
       </c>
-      <c r="H114" s="14" t="inlineStr">
+      <c r="H114" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I114" s="12" t="inlineStr">
+      <c r="I114" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.7σ)</t>
         </is>
@@ -9188,7 +9471,7 @@
         <v>-2510</v>
       </c>
       <c r="H116" s="4" t="inlineStr"/>
-      <c r="I116" s="12" t="inlineStr">
+      <c r="I116" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9264,7 +9547,7 @@
         <v>-1510</v>
       </c>
       <c r="H118" s="4" t="inlineStr"/>
-      <c r="I118" s="12" t="inlineStr">
+      <c r="I118" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -9344,7 +9627,7 @@
         <v>-1239</v>
       </c>
       <c r="H120" s="4" t="inlineStr"/>
-      <c r="I120" s="12" t="inlineStr">
+      <c r="I120" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9383,7 +9666,7 @@
       <c r="G121" s="4" t="n">
         <v>-1208</v>
       </c>
-      <c r="H121" s="14" t="inlineStr">
+      <c r="H121" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -9424,7 +9707,7 @@
         <v>-1198</v>
       </c>
       <c r="H122" s="4" t="inlineStr"/>
-      <c r="I122" s="12" t="inlineStr">
+      <c r="I122" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9463,12 +9746,12 @@
       <c r="G123" s="4" t="n">
         <v>-1180</v>
       </c>
-      <c r="H123" s="14" t="inlineStr">
+      <c r="H123" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I123" s="12" t="inlineStr">
+      <c r="I123" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(6.8σ)</t>
         </is>
@@ -9511,7 +9794,7 @@
       <c r="G124" s="4" t="n">
         <v>-1050</v>
       </c>
-      <c r="H124" s="14" t="inlineStr">
+      <c r="H124" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -9551,7 +9834,7 @@
       <c r="G125" s="4" t="n">
         <v>-928</v>
       </c>
-      <c r="H125" s="14" t="inlineStr">
+      <c r="H125" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -9591,12 +9874,12 @@
       <c r="G126" s="4" t="n">
         <v>-864</v>
       </c>
-      <c r="H126" s="14" t="inlineStr">
+      <c r="H126" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I126" s="12" t="inlineStr">
+      <c r="I126" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(6.9σ)</t>
         </is>
@@ -9675,7 +9958,7 @@
       <c r="G128" s="4" t="n">
         <v>-778</v>
       </c>
-      <c r="H128" s="14" t="inlineStr">
+      <c r="H128" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -9716,7 +9999,7 @@
         <v>-671</v>
       </c>
       <c r="H129" s="4" t="inlineStr"/>
-      <c r="I129" s="12" t="inlineStr">
+      <c r="I129" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9756,7 +10039,7 @@
         <v>-528</v>
       </c>
       <c r="H130" s="4" t="inlineStr"/>
-      <c r="I130" s="12" t="inlineStr">
+      <c r="I130" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.4σ)</t>
         </is>
@@ -9800,7 +10083,7 @@
         <v>-516</v>
       </c>
       <c r="H131" s="4" t="inlineStr"/>
-      <c r="I131" s="12" t="inlineStr">
+      <c r="I131" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.2σ)</t>
         </is>
@@ -9844,7 +10127,7 @@
         <v>-485</v>
       </c>
       <c r="H132" s="4" t="inlineStr"/>
-      <c r="I132" s="12" t="inlineStr">
+      <c r="I132" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9920,7 +10203,7 @@
         <v>-418</v>
       </c>
       <c r="H134" s="4" t="inlineStr"/>
-      <c r="I134" s="12" t="inlineStr">
+      <c r="I134" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9996,7 +10279,7 @@
         <v>-390</v>
       </c>
       <c r="H136" s="4" t="inlineStr"/>
-      <c r="I136" s="12" t="inlineStr">
+      <c r="I136" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10144,7 +10427,7 @@
         <v>-302</v>
       </c>
       <c r="H140" s="4" t="inlineStr"/>
-      <c r="I140" s="12" t="inlineStr">
+      <c r="I140" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10220,7 +10503,7 @@
         <v>-265</v>
       </c>
       <c r="H142" s="4" t="inlineStr"/>
-      <c r="I142" s="12" t="inlineStr">
+      <c r="I142" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10260,7 +10543,7 @@
         <v>-233</v>
       </c>
       <c r="H143" s="4" t="inlineStr"/>
-      <c r="I143" s="12" t="inlineStr">
+      <c r="I143" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10372,7 +10655,7 @@
         <v>-223</v>
       </c>
       <c r="H146" s="4" t="inlineStr"/>
-      <c r="I146" s="12" t="inlineStr">
+      <c r="I146" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10736,7 +11019,7 @@
         <v>-143</v>
       </c>
       <c r="H156" s="4" t="inlineStr"/>
-      <c r="I156" s="12" t="inlineStr">
+      <c r="I156" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.0σ)</t>
         </is>
@@ -10816,7 +11099,7 @@
         <v>-124</v>
       </c>
       <c r="H158" s="4" t="inlineStr"/>
-      <c r="I158" s="12" t="inlineStr">
+      <c r="I158" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10881,37 +11164,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -16002,37 +16285,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -21123,37 +21406,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -26244,37 +26527,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251205" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251204" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251205" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251204" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251203" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251202" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251201" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251205" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251204" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251203" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251202" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251201" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251205" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251204" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251210" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251209" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251208" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251212" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251211" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251210" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251209" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251208" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251216" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251215" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251212" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251211" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251210" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251210" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251210" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251216" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251215" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251212" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251211" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251210" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251217" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251216" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251215" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251211" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -4024,17 +4024,17 @@
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6175</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>方土昶</t>
+          <t>立敦</t>
         </is>
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D118" s="4" t="n">
@@ -4042,46 +4042,46 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>12, 15</t>
+          <t>11, 16</t>
         </is>
       </c>
       <c r="F118" s="4" t="n">
-        <v>2115</v>
+        <v>1339</v>
       </c>
       <c r="G118" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I118" s="4" t="n">
-        <v>-1384</v>
+        <v>-608</v>
       </c>
       <c r="J118" s="4" t="n">
         <v>731</v>
       </c>
       <c r="K118" s="4" t="inlineStr">
         <is>
-          <t>[('neutral', '17'), ('sell', '16'), ('buy', '15'), ('buy', '12'), ('neutral', '11')]</t>
+          <t>[('neutral', '17'), ('buy', '16'), ('sell', '15'), ('neutral', '12'), ('buy', '11')]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>6175</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>立敦</t>
+          <t>方土昶</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="D119" s="4" t="n">
@@ -4089,29 +4089,29 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>11, 16</t>
+          <t>12, 15</t>
         </is>
       </c>
       <c r="F119" s="4" t="n">
-        <v>1339</v>
+        <v>2115</v>
       </c>
       <c r="G119" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I119" s="4" t="n">
-        <v>-608</v>
+        <v>-1384</v>
       </c>
       <c r="J119" s="4" t="n">
         <v>731</v>
       </c>
       <c r="K119" s="4" t="inlineStr">
         <is>
-          <t>[('neutral', '17'), ('buy', '16'), ('sell', '15'), ('neutral', '12'), ('buy', '11')]</t>
+          <t>[('neutral', '17'), ('sell', '16'), ('buy', '15'), ('buy', '12'), ('neutral', '11')]</t>
         </is>
       </c>
     </row>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251217" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251216" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251215" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251212" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251211" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251218" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251217" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251216" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251215" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251212" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251218" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251217" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251216" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251215" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251212" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251219" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251219" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251218" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251217" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251216" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251215" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251219" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251217" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251216" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251215" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251219" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251230" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251229" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251226" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251224" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251223" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251230" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251229" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251226" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251224" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251223" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260102" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251231" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251230" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251229" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251226" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20260102" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251231" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251230" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251229" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251226" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20260102" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251231" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251230" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251229" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251226" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260102" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251231" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251230" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251229" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251226" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260107" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260106" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260105" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260102" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251231" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20260107" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20260106" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20260105" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20260102" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251231" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260115" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260114" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260113" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260112" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260109" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20260115" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20260114" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20260113" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20260112" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20260109" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4501,17 +4501,17 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>5475</t>
+          <t>6147</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>德宏</t>
+          <t>頎邦</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D129" s="4" t="n">
@@ -4519,46 +4519,46 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F129" s="4" t="n">
-        <v>1226</v>
+        <v>1290</v>
       </c>
       <c r="G129" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H129" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I129" s="4" t="n">
-        <v>-727</v>
+        <v>-791</v>
       </c>
       <c r="J129" s="4" t="n">
         <v>499</v>
       </c>
       <c r="K129" s="4" t="inlineStr">
         <is>
-          <t>[('buy', '15'), ('neutral', '14'), ('sell', '13'), ('neutral', '12'), ('neutral', '09')]</t>
+          <t>[('sell', '15'), ('neutral', '14'), ('neutral', '13'), ('buy', '12'), ('neutral', '09')]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>6147</t>
+          <t>5475</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>頎邦</t>
+          <t>德宏</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D130" s="4" t="n">
@@ -4566,29 +4566,29 @@
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F130" s="4" t="n">
-        <v>1290</v>
+        <v>1226</v>
       </c>
       <c r="G130" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H130" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I130" s="4" t="n">
-        <v>-791</v>
+        <v>-727</v>
       </c>
       <c r="J130" s="4" t="n">
         <v>499</v>
       </c>
       <c r="K130" s="4" t="inlineStr">
         <is>
-          <t>[('sell', '15'), ('neutral', '14'), ('neutral', '13'), ('buy', '12'), ('neutral', '09')]</t>
+          <t>[('buy', '15'), ('neutral', '14'), ('sell', '13'), ('neutral', '12'), ('neutral', '09')]</t>
         </is>
       </c>
     </row>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260116" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260115" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260114" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260113" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260112" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20260116" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20260115" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20260114" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20260113" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20260112" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20260116" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20260115" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20260114" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20260113" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20260112" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260116" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260115" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260114" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260113" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260112" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result.xlsx
+++ b/StockInfo/otc_analysis_result.xlsx
@@ -26794,16 +26794,8 @@
           <t>富喬</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>109.00</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
         <v>24122</v>
       </c>
@@ -26827,16 +26819,8 @@
           <t>世界</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>141.50</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
         <v>15869</v>
       </c>
@@ -26860,16 +26844,8 @@
           <t>系統電</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>68.20</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>+3.7</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
         <v>3847</v>
       </c>
@@ -26893,16 +26869,8 @@
           <t>亞電</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>43.20</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>+3.9</t>
-        </is>
-      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
         <v>2936</v>
       </c>
@@ -26926,16 +26894,8 @@
           <t>華容</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>+2.4</t>
-        </is>
-      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
         <v>2636</v>
       </c>
@@ -26959,16 +26919,8 @@
           <t>宏捷科</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>121.50</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>+11.0</t>
-        </is>
-      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
         <v>2614</v>
       </c>
@@ -26992,16 +26944,8 @@
           <t>頎邦</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>59.50</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>+1.3</t>
-        </is>
-      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
         <v>2366</v>
       </c>
@@ -27025,16 +26969,8 @@
           <t>台半</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>69.60</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>+1.4</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
         <v>1682</v>
       </c>
@@ -27058,16 +26994,8 @@
           <t>中光電</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>+2.7</t>
-        </is>
-      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
         <v>1676</v>
       </c>
@@ -27091,16 +27019,8 @@
           <t>穩懋</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>227.00</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>+14.0</t>
-        </is>
-      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
         <v>1643</v>
       </c>
@@ -27124,16 +27044,8 @@
           <t>中探針</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>63.80</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>+5.8</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
         <v>1616</v>
       </c>
@@ -27157,16 +27069,8 @@
           <t>致和證</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>+1.15</t>
-        </is>
-      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
         <v>1488</v>
       </c>
@@ -27190,16 +27094,8 @@
           <t>聯亞</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>708.00</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>+64.0</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
         <v>1368</v>
       </c>
@@ -27223,16 +27119,8 @@
           <t>立碁</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>68.00</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>+4.6</t>
-        </is>
-      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
         <v>1167</v>
       </c>
@@ -27256,16 +27144,8 @@
           <t>萬泰科</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>49.50</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
         <v>1157</v>
       </c>
@@ -27289,16 +27169,8 @@
           <t>金居</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>283.00</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>+5.5</t>
-        </is>
-      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
         <v>1132</v>
       </c>
@@ -27322,16 +27194,8 @@
           <t>合晶</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>39.65</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
         <v>1091</v>
       </c>
@@ -27355,16 +27219,8 @@
           <t>松瑞藥</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
         <v>1046</v>
       </c>
@@ -27388,16 +27244,8 @@
           <t>台燿</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>475.00</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>+4.5</t>
-        </is>
-      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
         <v>951</v>
       </c>
@@ -27421,16 +27269,8 @@
           <t>康和證</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>15.85</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
         <v>892</v>
       </c>
@@ -27454,16 +27294,8 @@
           <t>合正</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>33.45</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
         <v>851</v>
       </c>
@@ -27487,16 +27319,8 @@
           <t>中天</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>21.20</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
         <v>850</v>
       </c>
@@ -27520,16 +27344,8 @@
           <t>博磊</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>80.80</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
         <v>839</v>
       </c>
@@ -27553,16 +27369,8 @@
           <t>茂迪</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>23.20</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
         <v>788</v>
       </c>
@@ -27586,16 +27394,8 @@
           <t>大江</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>139.00</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>+6.0</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
         <v>774</v>
       </c>
@@ -27619,16 +27419,8 @@
           <t>環球晶</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>502.00</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
         <v>692</v>
       </c>
@@ -27652,16 +27444,8 @@
           <t>佶優</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
         <v>678</v>
       </c>
@@ -27685,16 +27469,8 @@
           <t>健亞</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>33.35</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
         <v>607</v>
       </c>
@@ -27718,16 +27494,8 @@
           <t>勤凱</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>198.50</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>+9.0</t>
-        </is>
-      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
         <v>585</v>
       </c>
@@ -27751,16 +27519,8 @@
           <t>華電網</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
         <v>583</v>
       </c>
@@ -27784,16 +27544,8 @@
           <t>家登</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>433.50</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>+10.5</t>
-        </is>
-      </c>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
         <v>575</v>
       </c>
@@ -27817,16 +27569,8 @@
           <t>尼克森</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>54.70</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>+4.9</t>
-        </is>
-      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
         <v>552</v>
       </c>
@@ -27850,16 +27594,8 @@
           <t>湧德</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>122.00</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
         <v>526</v>
       </c>
@@ -27883,16 +27619,8 @@
           <t>廣運</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
         <v>508</v>
       </c>
@@ -27916,16 +27644,8 @@
           <t>能率</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>49.75</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>+0.95</t>
-        </is>
-      </c>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
         <v>468</v>
       </c>
@@ -27949,16 +27669,8 @@
           <t>中美晶</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
         <v>463</v>
       </c>
@@ -27982,16 +27694,8 @@
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
         <v>453</v>
       </c>
@@ -28015,16 +27719,8 @@
           <t>今展科</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>37.70</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>+1.4</t>
-        </is>
-      </c>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
         <v>432</v>
       </c>
@@ -28048,16 +27744,8 @@
           <t>高鋒</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
         <v>419</v>
       </c>
@@ -28081,16 +27769,8 @@
           <t>南仁湖</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
         <v>397</v>
       </c>
@@ -28114,16 +27794,8 @@
           <t>閎康</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>199.00</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>+7.0</t>
-        </is>
-      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
         <v>384</v>
       </c>
@@ -28147,16 +27819,8 @@
           <t>北基</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
         <v>368</v>
       </c>
@@ -28180,16 +27844,8 @@
           <t>越峰</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>33.55</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>+1.45</t>
-        </is>
-      </c>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
         <v>361</v>
       </c>
@@ -28213,16 +27869,8 @@
           <t>正德</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>20.75</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
         <v>358</v>
       </c>
@@ -28246,16 +27894,8 @@
           <t>精材</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>178.00</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
         <v>351</v>
       </c>
@@ -28279,16 +27919,8 @@
           <t>鉅橡</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>65.50</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>+5.9</t>
-        </is>
-      </c>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
         <v>341</v>
       </c>
@@ -28312,16 +27944,8 @@
           <t>久元</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>72.20</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
         <v>323</v>
       </c>
@@ -28345,16 +27969,8 @@
           <t>精剛</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
         <v>317</v>
       </c>
@@ -28378,16 +27994,8 @@
           <t>宜特</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>123.50</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
         <v>294</v>
       </c>
@@ -28411,16 +28019,8 @@
           <t>福邦證</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
         <v>291</v>
       </c>
@@ -28444,16 +28044,8 @@
           <t>邑錡</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>138.00</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>+6.0</t>
-        </is>
-      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
         <v>288</v>
       </c>
@@ -28477,16 +28069,8 @@
           <t>醣聯</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>28.60</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
         <v>261</v>
       </c>
@@ -28510,16 +28094,8 @@
           <t>環宇-KY</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>207.00</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>+5.5</t>
-        </is>
-      </c>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
         <v>260</v>
       </c>
@@ -28543,16 +28119,8 @@
           <t>良維</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>166.50</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
         <v>248</v>
       </c>
@@ -28576,16 +28144,8 @@
           <t>美琪瑪</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>70.10</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
         <v>245</v>
       </c>
@@ -28609,16 +28169,8 @@
           <t>旺矽</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>2450.00</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>+135.0</t>
-        </is>
-      </c>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
         <v>244</v>
       </c>
@@ -28642,16 +28194,8 @@
           <t>亞泰金屬</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>181.50</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>+5.5</t>
-        </is>
-      </c>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
         <v>242</v>
       </c>
@@ -28675,16 +28219,8 @@
           <t>蜜望實</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>96.20</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-1.6</t>
-        </is>
-      </c>
+      <c r="E61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
         <v>238</v>
       </c>
@@ -28708,16 +28244,8 @@
           <t>鈦昇</t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
         <v>232</v>
       </c>
@@ -28741,16 +28269,8 @@
           <t>晶呈科技</t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>419.50</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
         <v>225</v>
       </c>
@@ -28774,16 +28294,8 @@
           <t>元創精密</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>37.80</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
         <v>224</v>
       </c>
@@ -28807,16 +28319,8 @@
           <t>晟德</t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>41.70</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
         <v>224</v>
       </c>
@@ -28840,16 +28344,8 @@
           <t>廣明</t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>107.50</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
         <v>222</v>
       </c>
@@ -28873,16 +28369,8 @@
           <t>合一</t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E67" s="4" t="inlineStr"/>
+      <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
         <v>218</v>
       </c>
@@ -28906,16 +28394,8 @@
           <t>均豪</t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E68" s="4" t="inlineStr"/>
+      <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
         <v>218</v>
       </c>
@@ -28939,16 +28419,8 @@
           <t>點序</t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>114.00</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
         <v>210</v>
       </c>
@@ -28972,16 +28444,8 @@
           <t>天品</t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>114.50</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
         <v>209</v>
       </c>
@@ -29005,16 +28469,8 @@
           <t>昇達科</t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>913.00</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
         <v>207</v>
       </c>
@@ -29038,16 +28494,8 @@
           <t>萬潤</t>
         </is>
       </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>375.00</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>+4.5</t>
-        </is>
-      </c>
+      <c r="E72" s="4" t="inlineStr"/>
+      <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
         <v>207</v>
       </c>
@@ -29071,16 +28519,8 @@
           <t>泰谷</t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>+2.8</t>
-        </is>
-      </c>
+      <c r="E73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
         <v>204</v>
       </c>
@@ -29104,16 +28544,8 @@
           <t>協禧</t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>24.80</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E74" s="4" t="inlineStr"/>
+      <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
         <v>196</v>
       </c>
@@ -29137,16 +28569,8 @@
           <t>大國鋼</t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>34.50</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E75" s="4" t="inlineStr"/>
+      <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
         <v>192</v>
       </c>
@@ -29170,16 +28594,8 @@
           <t>光耀</t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>29.35</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
         <v>187</v>
       </c>
@@ -29203,16 +28619,8 @@
           <t>健喬</t>
         </is>
       </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>32.70</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E77" s="4" t="inlineStr"/>
+      <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
         <v>184</v>
       </c>
@@ -29236,16 +28644,8 @@
           <t>雍智科技</t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
-        <is>
-          <t>447.00</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
-        <is>
-          <t>+7.5</t>
-        </is>
-      </c>
+      <c r="E78" s="4" t="inlineStr"/>
+      <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
         <v>178</v>
       </c>
@@ -29269,16 +28669,8 @@
           <t>晶宏</t>
         </is>
       </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
         <v>171</v>
       </c>
@@ -29302,16 +28694,8 @@
           <t>晟田</t>
         </is>
       </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E80" s="4" t="inlineStr"/>
+      <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
         <v>171</v>
       </c>
@@ -29335,16 +28719,8 @@
           <t>協易機</t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>29.25</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
+      <c r="E81" s="4" t="inlineStr"/>
+      <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
         <v>169</v>
       </c>
@@ -29368,16 +28744,8 @@
           <t>鑫聯大投控</t>
         </is>
       </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>59.90</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E82" s="4" t="inlineStr"/>
+      <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
         <v>167</v>
       </c>
@@ -29401,16 +28769,8 @@
           <t>台星科</t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>141.50</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
         <v>166</v>
       </c>
@@ -29434,16 +28794,8 @@
           <t>英濟</t>
         </is>
       </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>41.10</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E84" s="4" t="inlineStr"/>
+      <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
         <v>163</v>
       </c>
@@ -29467,16 +28819,8 @@
           <t>博大</t>
         </is>
       </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
         <v>158</v>
       </c>
@@ -29500,16 +28844,8 @@
           <t>邦泰</t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>18.90</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
         <v>158</v>
       </c>
@@ -29533,16 +28869,8 @@
           <t>群翊</t>
         </is>
       </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>289.50</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
         <v>152</v>
       </c>
@@ -29566,16 +28894,8 @@
           <t>加百裕</t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>39.90</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
         <v>144</v>
       </c>
@@ -29599,16 +28919,8 @@
           <t>聚和</t>
         </is>
       </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E89" s="4" t="inlineStr"/>
+      <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
         <v>143</v>
       </c>
@@ -29632,16 +28944,8 @@
           <t>千附</t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>42.35</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
         <v>143</v>
       </c>
@@ -29665,16 +28969,8 @@
           <t>波若威</t>
         </is>
       </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>371.50</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>+22.0</t>
-        </is>
-      </c>
+      <c r="E91" s="4" t="inlineStr"/>
+      <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
         <v>133</v>
       </c>
@@ -29698,16 +28994,8 @@
           <t>光環</t>
         </is>
       </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>46.50</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E92" s="4" t="inlineStr"/>
+      <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
         <v>133</v>
       </c>
@@ -29731,16 +29019,8 @@
           <t>碩禾</t>
         </is>
       </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>125.50</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E93" s="4" t="inlineStr"/>
+      <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
         <v>127</v>
       </c>
@@ -29764,16 +29044,8 @@
           <t>旭品</t>
         </is>
       </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>16.40</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E94" s="4" t="inlineStr"/>
+      <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
         <v>121</v>
       </c>
@@ -29797,16 +29069,8 @@
           <t>華景電</t>
         </is>
       </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>348.00</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E95" s="4" t="inlineStr"/>
+      <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
         <v>121</v>
       </c>
@@ -29830,16 +29094,8 @@
           <t>岳豐</t>
         </is>
       </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>+0.25</t>
-        </is>
-      </c>
+      <c r="E96" s="4" t="inlineStr"/>
+      <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
         <v>120</v>
       </c>
@@ -29863,16 +29119,8 @@
           <t>康全電訊</t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>30.20</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>+0.75</t>
-        </is>
-      </c>
+      <c r="E97" s="4" t="inlineStr"/>
+      <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
         <v>120</v>
       </c>
@@ -29896,16 +29144,8 @@
           <t>單井</t>
         </is>
       </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>26.50</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E98" s="4" t="inlineStr"/>
+      <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
         <v>118</v>
       </c>
@@ -29929,16 +29169,8 @@
           <t>美好證</t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
         <v>117</v>
       </c>
@@ -29962,16 +29194,8 @@
           <t>穩得</t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>137.00</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>+5.5</t>
-        </is>
-      </c>
+      <c r="E100" s="4" t="inlineStr"/>
+      <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
         <v>117</v>
       </c>
@@ -29995,16 +29219,8 @@
           <t>大中</t>
         </is>
       </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>139.00</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>+12.5</t>
-        </is>
-      </c>
+      <c r="E101" s="4" t="inlineStr"/>
+      <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
         <v>113</v>
       </c>
@@ -30028,16 +29244,8 @@
           <t>朋程</t>
         </is>
       </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>127.00</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E102" s="4" t="inlineStr"/>
+      <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
         <v>112</v>
       </c>
@@ -30061,16 +29269,8 @@
           <t>弘塑</t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>1750.00</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E103" s="4" t="inlineStr"/>
+      <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
         <v>104</v>
       </c>
@@ -30171,16 +29371,8 @@
           <t>凱崴</t>
         </is>
       </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>69.10</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>-2.9</t>
-        </is>
-      </c>
+      <c r="E109" s="4" t="inlineStr"/>
+      <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
         <v>-4991</v>
       </c>
@@ -30204,16 +29396,8 @@
           <t>欣銓</t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr">
-        <is>
-          <t>165.00</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
-        <is>
-          <t>+10.5</t>
-        </is>
-      </c>
+      <c r="E110" s="4" t="inlineStr"/>
+      <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
         <v>-4133</v>
       </c>
@@ -30237,16 +29421,8 @@
           <t>方土昶</t>
         </is>
       </c>
-      <c r="E111" s="4" t="inlineStr">
-        <is>
-          <t>52.30</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E111" s="4" t="inlineStr"/>
+      <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
         <v>-3023</v>
       </c>
@@ -30270,16 +29446,8 @@
           <t>信昌電</t>
         </is>
       </c>
-      <c r="E112" s="4" t="inlineStr">
-        <is>
-          <t>76.20</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
-        <is>
-          <t>-1.9</t>
-        </is>
-      </c>
+      <c r="E112" s="4" t="inlineStr"/>
+      <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
         <v>-2286</v>
       </c>
@@ -30303,16 +29471,8 @@
           <t>漢磊</t>
         </is>
       </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>61.90</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t>+3.4</t>
-        </is>
-      </c>
+      <c r="E113" s="4" t="inlineStr"/>
+      <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
         <v>-2176</v>
       </c>
@@ -30336,16 +29496,8 @@
           <t>榮群</t>
         </is>
       </c>
-      <c r="E114" s="4" t="inlineStr">
-        <is>
-          <t>27.90</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t>+1.45</t>
-        </is>
-      </c>
+      <c r="E114" s="4" t="inlineStr"/>
+      <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
         <v>-1647</v>
       </c>
@@ -30369,16 +29521,8 @@
           <t>擎亞</t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
-        <is>
-          <t>51.20</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
         <v>-1480</v>
       </c>
@@ -30402,16 +29546,8 @@
           <t>擎邦</t>
         </is>
       </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
-        <is>
-          <t>+3.2</t>
-        </is>
-      </c>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
         <v>-1426</v>
       </c>
@@ -30435,16 +29571,8 @@
           <t>元太</t>
         </is>
       </c>
-      <c r="E117" s="4" t="inlineStr">
-        <is>
-          <t>176.50</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E117" s="4" t="inlineStr"/>
+      <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
         <v>-1390</v>
       </c>
@@ -30468,16 +29596,8 @@
           <t>光洋科</t>
         </is>
       </c>
-      <c r="E118" s="4" t="inlineStr">
-        <is>
-          <t>63.40</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
         <v>-1352</v>
       </c>
@@ -30501,16 +29621,8 @@
           <t>元山</t>
         </is>
       </c>
-      <c r="E119" s="4" t="inlineStr">
-        <is>
-          <t>59.40</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
         <v>-1277</v>
       </c>
@@ -30534,16 +29646,8 @@
           <t>富強鑫</t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>+1.6</t>
-        </is>
-      </c>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
         <v>-972</v>
       </c>
@@ -30567,16 +29671,8 @@
           <t>佳邦</t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>-2.4</t>
-        </is>
-      </c>
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
         <v>-966</v>
       </c>
@@ -30600,16 +29696,8 @@
           <t>新盛力</t>
         </is>
       </c>
-      <c r="E122" s="4" t="inlineStr">
-        <is>
-          <t>155.00</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E122" s="4" t="inlineStr"/>
+      <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
         <v>-861</v>
       </c>
@@ -30633,16 +29721,8 @@
           <t>順達</t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>285.50</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>+8.5</t>
-        </is>
-      </c>
+      <c r="E123" s="4" t="inlineStr"/>
+      <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
         <v>-760</v>
       </c>
@@ -30666,16 +29746,8 @@
           <t>典範</t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>25.65</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>+0.9</t>
-        </is>
-      </c>
+      <c r="E124" s="4" t="inlineStr"/>
+      <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
         <v>-753</v>
       </c>
@@ -30699,16 +29771,8 @@
           <t>九豪</t>
         </is>
       </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>41.35</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E125" s="4" t="inlineStr"/>
+      <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
         <v>-701</v>
       </c>
@@ -30732,16 +29796,8 @@
           <t>鈺創</t>
         </is>
       </c>
-      <c r="E126" s="4" t="inlineStr">
-        <is>
-          <t>69.00</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E126" s="4" t="inlineStr"/>
+      <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
         <v>-670</v>
       </c>
@@ -30765,16 +29821,8 @@
           <t>金山電</t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
-        <is>
-          <t>71.60</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>-0.0</t>
-        </is>
-      </c>
+      <c r="E127" s="4" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
         <v>-664</v>
       </c>
@@ -30798,16 +29846,8 @@
           <t>廣穎</t>
         </is>
       </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>55.90</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
-        <is>
-          <t>-2.4</t>
-        </is>
-      </c>
+      <c r="E128" s="4" t="inlineStr"/>
+      <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
         <v>-661</v>
       </c>
@@ -30831,16 +29871,8 @@
           <t>威剛</t>
         </is>
       </c>
-      <c r="E129" s="4" t="inlineStr">
-        <is>
-          <t>298.00</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
-        <is>
-          <t>-21.5</t>
-        </is>
-      </c>
+      <c r="E129" s="4" t="inlineStr"/>
+      <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
         <v>-630</v>
       </c>
@@ -30864,16 +29896,8 @@
           <t>聖暉*</t>
         </is>
       </c>
-      <c r="E130" s="4" t="inlineStr">
-        <is>
-          <t>709.00</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
+      <c r="E130" s="4" t="inlineStr"/>
+      <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
         <v>-627</v>
       </c>
@@ -30897,16 +29921,8 @@
           <t>曜越</t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr">
-        <is>
-          <t>35.75</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
-        <is>
-          <t>+0.85</t>
-        </is>
-      </c>
+      <c r="E131" s="4" t="inlineStr"/>
+      <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
         <v>-605</v>
       </c>
@@ -30930,16 +29946,8 @@
           <t>安國</t>
         </is>
       </c>
-      <c r="E132" s="4" t="inlineStr">
-        <is>
-          <t>122.00</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E132" s="4" t="inlineStr"/>
+      <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
         <v>-519</v>
       </c>
@@ -30963,16 +29971,8 @@
           <t>大樹</t>
         </is>
       </c>
-      <c r="E133" s="4" t="inlineStr">
-        <is>
-          <t>96.40</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E133" s="4" t="inlineStr"/>
+      <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
         <v>-494</v>
       </c>
@@ -30996,16 +29996,8 @@
           <t>IET-KY</t>
         </is>
       </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>372.00</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="inlineStr">
-        <is>
-          <t>+33.5</t>
-        </is>
-      </c>
+      <c r="E134" s="4" t="inlineStr"/>
+      <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
         <v>-491</v>
       </c>
@@ -31029,16 +30021,8 @@
           <t>臺慶科</t>
         </is>
       </c>
-      <c r="E135" s="4" t="inlineStr">
-        <is>
-          <t>175.00</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
         <v>-490</v>
       </c>
@@ -31062,16 +30046,8 @@
           <t>群聯</t>
         </is>
       </c>
-      <c r="E136" s="4" t="inlineStr">
-        <is>
-          <t>2005.00</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
-        <is>
-          <t>+25.0</t>
-        </is>
-      </c>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
         <v>-488</v>
       </c>
@@ -31095,16 +30071,8 @@
           <t>世紀*</t>
         </is>
       </c>
-      <c r="E137" s="4" t="inlineStr">
-        <is>
-          <t>97.30</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t>+2.8</t>
-        </is>
-      </c>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
         <v>-456</v>
       </c>
@@ -31128,16 +30096,8 @@
           <t>立敦</t>
         </is>
       </c>
-      <c r="E138" s="4" t="inlineStr">
-        <is>
-          <t>54.70</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E138" s="4" t="inlineStr"/>
+      <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
         <v>-394</v>
       </c>
@@ -31161,16 +30121,8 @@
           <t>浩鼎</t>
         </is>
       </c>
-      <c r="E139" s="4" t="inlineStr">
-        <is>
-          <t>25.85</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
+      <c r="E139" s="4" t="inlineStr"/>
+      <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
         <v>-393</v>
       </c>
@@ -31194,16 +30146,8 @@
           <t>創惟</t>
         </is>
       </c>
-      <c r="E140" s="4" t="inlineStr">
-        <is>
-          <t>102.50</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E140" s="4" t="inlineStr"/>
+      <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
         <v>-392</v>
       </c>
@@ -31227,16 +30171,8 @@
           <t>高端疫苗</t>
         </is>
       </c>
-      <c r="E141" s="4" t="inlineStr">
-        <is>
-          <t>37.05</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E141" s="4" t="inlineStr"/>
+      <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
         <v>-391</v>
       </c>
@@ -31260,16 +30196,8 @@
           <t>青雲</t>
         </is>
       </c>
-      <c r="E142" s="4" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
-        <is>
-          <t>-2.3</t>
-        </is>
-      </c>
+      <c r="E142" s="4" t="inlineStr"/>
+      <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
         <v>-384</v>
       </c>
@@ -31293,16 +30221,8 @@
           <t>福裕</t>
         </is>
       </c>
-      <c r="E143" s="4" t="inlineStr">
-        <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
-        <is>
-          <t>-1.3</t>
-        </is>
-      </c>
+      <c r="E143" s="4" t="inlineStr"/>
+      <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
         <v>-383</v>
       </c>
@@ -31326,16 +30246,8 @@
           <t>松上</t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr">
-        <is>
-          <t>23.65</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
-        <is>
-          <t>+0.85</t>
-        </is>
-      </c>
+      <c r="E144" s="4" t="inlineStr"/>
+      <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
         <v>-355</v>
       </c>
@@ -31359,16 +30271,8 @@
           <t>建舜電</t>
         </is>
       </c>
-      <c r="E145" s="4" t="inlineStr">
-        <is>
-          <t>17.35</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
+      <c r="E145" s="4" t="inlineStr"/>
+      <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
         <v>-349</v>
       </c>
@@ -31392,16 +30296,8 @@
           <t>先進光</t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
-        <is>
-          <t>113.50</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
+      <c r="E146" s="4" t="inlineStr"/>
+      <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
         <v>-342</v>
       </c>
@@ -31425,16 +30321,8 @@
           <t>長科*</t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
-        <is>
-          <t>55.30</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t>+5.0</t>
-        </is>
-      </c>
+      <c r="E147" s="4" t="inlineStr"/>
+      <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
         <v>-318</v>
       </c>
@@ -31458,16 +30346,8 @@
           <t>雷科</t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr">
-        <is>
-          <t>56.10</t>
-        </is>
-      </c>
-      <c r="F148" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E148" s="4" t="inlineStr"/>
+      <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
         <v>-313</v>
       </c>
@@ -31491,16 +30371,8 @@
           <t>聯光通</t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr">
-        <is>
-          <t>40.05</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
         <v>-303</v>
       </c>
@@ -31524,16 +30396,8 @@
           <t>僑威</t>
         </is>
       </c>
-      <c r="E150" s="4" t="inlineStr">
-        <is>
-          <t>66.20</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E150" s="4" t="inlineStr"/>
+      <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
         <v>-294</v>
       </c>
@@ -31557,16 +30421,8 @@
           <t>東捷</t>
         </is>
       </c>
-      <c r="E151" s="4" t="inlineStr">
-        <is>
-          <t>55.40</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>-1.6</t>
-        </is>
-      </c>
+      <c r="E151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
         <v>-289</v>
       </c>
@@ -31590,16 +30446,8 @@
           <t>信立</t>
         </is>
       </c>
-      <c r="E152" s="4" t="inlineStr">
-        <is>
-          <t>60.60</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E152" s="4" t="inlineStr"/>
+      <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
         <v>-280</v>
       </c>
@@ -31623,16 +30471,8 @@
           <t>瀧澤科</t>
         </is>
       </c>
-      <c r="E153" s="4" t="inlineStr">
-        <is>
-          <t>43.95</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t>-2.1</t>
-        </is>
-      </c>
+      <c r="E153" s="4" t="inlineStr"/>
+      <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
         <v>-278</v>
       </c>
@@ -31656,16 +30496,8 @@
           <t>保勝光學</t>
         </is>
       </c>
-      <c r="E154" s="4" t="inlineStr">
-        <is>
-          <t>77.80</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E154" s="4" t="inlineStr"/>
+      <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
         <v>-274</v>
       </c>
@@ -31689,16 +30521,8 @@
           <t>全達</t>
         </is>
       </c>
-      <c r="E155" s="4" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>-1.55</t>
-        </is>
-      </c>
+      <c r="E155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
         <v>-274</v>
       </c>
@@ -31722,16 +30546,8 @@
           <t>匯鑽科</t>
         </is>
       </c>
-      <c r="E156" s="4" t="inlineStr">
-        <is>
-          <t>64.40</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E156" s="4" t="inlineStr"/>
+      <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
         <v>-274</v>
       </c>
@@ -31755,16 +30571,8 @@
           <t>榮剛</t>
         </is>
       </c>
-      <c r="E157" s="4" t="inlineStr">
-        <is>
-          <t>33.95</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
         <v>-272</v>
       </c>
@@ -31788,16 +30596,8 @@
           <t>智通*</t>
         </is>
       </c>
-      <c r="E158" s="4" t="inlineStr">
-        <is>
-          <t>188.50</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E158" s="4" t="inlineStr"/>
+      <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
         <v>-263</v>
       </c>
